--- a/data/long_dif/P23_1-Edad-long_dif.xlsx
+++ b/data/long_dif/P23_1-Edad-long_dif.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,37 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>22,46%</t>
+          <t>20,48%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>25,94%</t>
+          <t>27,32%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>20,02%</t>
+          <t>16,44%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>25,54%</t>
+          <t>26,86%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>21,27%</t>
+          <t>19,64%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>25,74%</t>
+          <t>25,57%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>27,3%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>31,35%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>20,07%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>26,45%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>22,06%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>29,07%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,71; 32,8</t>
+          <t>12,95; 29,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,14; 35,88</t>
+          <t>19,03; 38,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,38; 29,1</t>
+          <t>7,9; 30,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,91; 34,09</t>
+          <t>15,2; 44,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,91; 27,99</t>
+          <t>13,09; 27,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,7; 31,48</t>
+          <t>18,69; 33,92</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>18,17; 37,51</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>19,61; 47,08</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>14,18; 25,7</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>20,95; 33,14</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>15,98; 29,7</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>19,98; 39,7</t>
         </is>
       </c>
     </row>
@@ -672,37 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>53,73%</t>
+          <t>51,43%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>62,59%</t>
+          <t>61,79%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>53,42%</t>
+          <t>61,55%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>55,56%</t>
+          <t>41,97%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>53,58%</t>
+          <t>55,23%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>59,09%</t>
+          <t>55,36%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>55,68%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>45,39%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>53,28%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>58,59%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>58,51%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>43,65%</t>
         </is>
       </c>
     </row>
@@ -715,32 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>42,67; 64,36</t>
+          <t>40,18; 63,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>52,01; 73,01</t>
+          <t>50,07; 71,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>43,81; 63,37</t>
+          <t>46,81; 73,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>47,08; 63,59</t>
+          <t>25,63; 56,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>46,04; 61,09</t>
+          <t>45,2; 64,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>51,91; 65,83</t>
+          <t>46,61; 64,1</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>43,93; 65,07</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>31,15; 60,6</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>45,73; 61,31</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>52,07; 64,94</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>49,81; 66,34</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>33,19; 53,64</t>
         </is>
       </c>
     </row>
@@ -748,37 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>23,81%</t>
+          <t>28,09%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,47%</t>
+          <t>10,89%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>26,56%</t>
+          <t>22,01%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,9%</t>
+          <t>31,17%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>25,15%</t>
+          <t>25,13%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>15,17%</t>
+          <t>19,07%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>17,02%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>23,27%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>26,65%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>14,96%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>19,43%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>27,28%</t>
         </is>
       </c>
     </row>
@@ -791,74 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,8; 33,79</t>
+          <t>18,25; 40,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,6; 20,06</t>
+          <t>5,79; 18,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>18,91; 36,36</t>
+          <t>11,44; 35,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,81; 25,94</t>
+          <t>18,42; 47,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,13; 31,52</t>
+          <t>18,13; 33,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,02; 20,56</t>
+          <t>13,06; 26,63</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>10,43; 26,37</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>13,05; 35,27</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>20,34; 34,68</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>10,49; 20,34</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>13,39; 27,37</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>18,8; 37,22</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,72%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>31,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>24,24%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>23,85%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,83%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>28,11%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -871,70 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,5; 28,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,13; 46,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,25; 32,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,44; 30,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,77; 27,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,37; 37,28</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>40,2%</t>
+          <t>18,67%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>49,72%</t>
+          <t>32,83%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>48,25%</t>
+          <t>26,71%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>46,16%</t>
+          <t>19,82%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>43,96%</t>
+          <t>23,24%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>48,05%</t>
+          <t>24,28%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>33,41%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>28,8%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>20,79%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>28,83%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>29,73%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>24,22%</t>
         </is>
       </c>
     </row>
@@ -947,32 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>30,27; 51,22</t>
+          <t>12,19; 27,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>37,03; 59,14</t>
+          <t>23,27; 48,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>40,29; 57,58</t>
+          <t>14,96; 44,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>39,5; 53,41</t>
+          <t>8,54; 34,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>36,35; 50,66</t>
+          <t>16,22; 31,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>41,03; 53,8</t>
+          <t>18,53; 30,75</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>24,67; 41,77</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>20,86; 39,53</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>15,2; 26,33</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>23,15; 39,41</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>22,32; 39,68</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>16,8; 32,69</t>
         </is>
       </c>
     </row>
@@ -980,37 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>40,07%</t>
+          <t>39,59%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>18,4%</t>
+          <t>48,69%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>27,51%</t>
+          <t>51,6%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>29,99%</t>
+          <t>63,07%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>34,2%</t>
+          <t>48,4%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>23,84%</t>
+          <t>45,95%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>42,62%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>43,78%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>43,69%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>47,41%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>47,55%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>53,63%</t>
         </is>
       </c>
     </row>
@@ -1023,74 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>29,18; 55,03</t>
+          <t>27,89; 50,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,36; 25,8</t>
+          <t>37,06; 58,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>20,19; 35,85</t>
+          <t>36,86; 69,57</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>23,5; 37,19</t>
+          <t>43,14; 80,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>27,34; 43,46</t>
+          <t>39,61; 57,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,83; 29,0</t>
+          <t>38,81; 53,38</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>32,73; 51,57</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>33,52; 55,16</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>35,81; 51,05</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>38,78; 53,3</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>39,73; 60,15</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>42,98; 65,67</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>25,52%</t>
+          <t>41,73%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>18,48%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>21,69%</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>17,11%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>28,35%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>29,77%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>23,98%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>27,42%</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>19,4%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>33,38%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>22,34%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>30,48%</t>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>35,52%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>23,77%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>22,72%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>22,16%</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>18,73; 32,63</t>
+          <t>30,13; 56,53</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>21,05; 34,29</t>
+          <t>12,75; 26,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>14,72; 25,08</t>
+          <t>12,17; 33,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>28,15; 39,22</t>
+          <t>7,39; 32,73</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,31; 26,91</t>
+          <t>20,96; 36,9</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>26,35; 35,01</t>
+          <t>23,06; 36,42</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>15,3; 33,4</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>18,59; 37,62</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>28,2; 46,06</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>18,82; 29,02</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>16,27; 30,14</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>14,53; 31,64</t>
         </is>
       </c>
     </row>
@@ -1136,37 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>47,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>46,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>38,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>38,55%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>42,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>42,33%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1179,70 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>38,74; 57,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>39,26; 55,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>31,48; 45,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>32,43; 44,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>36,94; 48,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>37,48; 47,77</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>27,47%</t>
+          <t>24,44%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>26,27%</t>
+          <t>27,68%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>42,3%</t>
+          <t>31,65%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>28,07%</t>
+          <t>24,58%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>35,17%</t>
+          <t>19,42%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>27,19%</t>
+          <t>33,52%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>31,73%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>31,7%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>21,81%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>30,67%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>31,69%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>27,96%</t>
         </is>
       </c>
     </row>
@@ -1255,74 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>19,79; 35,74</t>
+          <t>17,91; 31,28</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>20,26; 33,14</t>
+          <t>21,31; 34,79</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>35,85; 48,87</t>
+          <t>24,24; 39,64</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>23,05; 33,38</t>
+          <t>17,18; 35,32</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>30,53; 40,52</t>
+          <t>14,7; 24,87</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>22,96; 31,07</t>
+          <t>28,43; 38,69</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>26,06; 38,06</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>23,33; 39,99</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>17,68; 26,09</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>26,29; 35,2</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>27,19; 37,01</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>22,03; 34,61</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>26,08%</t>
+          <t>48,17%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>32,4%</t>
+          <t>45,77%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>18,71%</t>
+          <t>40,44%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>32,28%</t>
+          <t>44,51%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>22,28%</t>
+          <t>37,79%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>32,34%</t>
+          <t>38,23%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>47,87%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>44,27%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>42,74%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>41,91%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>44,32%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>44,4%</t>
         </is>
       </c>
     </row>
@@ -1335,32 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>19,72; 34,11</t>
+          <t>39,89; 58,37</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>25,78; 38,69</t>
+          <t>37,33; 54,32</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>14,4; 24,03</t>
+          <t>32,23; 50,26</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>26,8; 38,06</t>
+          <t>34,83; 54,52</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>18,34; 27,35</t>
+          <t>31,93; 43,9</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>27,91; 36,48</t>
+          <t>33,01; 44,14</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>41,49; 54,99</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>35,69; 53,69</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>36,96; 49,13</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>36,96; 46,97</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>38,93; 49,76</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>37,45; 51,84</t>
         </is>
       </c>
     </row>
@@ -1368,37 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>38,88%</t>
+          <t>27,39%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>41,94%</t>
+          <t>26,55%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>46,74%</t>
+          <t>27,91%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>37,51%</t>
+          <t>30,91%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>42,93%</t>
+          <t>42,79%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>39,66%</t>
+          <t>28,24%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>20,4%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>24,02%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>35,44%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>27,42%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>23,99%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>27,64%</t>
         </is>
       </c>
     </row>
@@ -1411,32 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>31,82; 46,23</t>
+          <t>20,1; 34,7</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>35,61; 49,35</t>
+          <t>20,42; 32,84</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>40,35; 53,28</t>
+          <t>21,05; 35,28</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>31,63; 43,37</t>
+          <t>22,19; 41,55</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>38,2; 47,66</t>
+          <t>36,51; 49,23</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>35,23; 43,98</t>
+          <t>23,4; 34,02</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>15,34; 26,22</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>16,88; 32,8</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>30,27; 40,98</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>23,12; 31,41</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>19,87; 28,44</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>21,21; 33,95</t>
         </is>
       </c>
     </row>
@@ -1444,37 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>35,04%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>25,66%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>34,55%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>30,2%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>34,79%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>28,0%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1487,74 +2228,134 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>28,09; 41,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>20,57; 32,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>28,48; 41,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>24,83; 35,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>30,54; 39,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>24,08; 32,31</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>27,71%</t>
+          <t>25,24%</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>27,68%</t>
+          <t>32,79%</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>14,96%</t>
+          <t>26,81%</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>23,62%</t>
+          <t>31,24%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>21,48%</t>
+          <t>18,57%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>25,63%</t>
+          <t>31,94%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>27,48%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>21,05%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>21,82%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>32,35%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>27,15%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>26,35%</t>
         </is>
       </c>
     </row>
@@ -1567,32 +2368,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>20,91; 35,8</t>
+          <t>18,36; 33,32</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>22,07; 34,3</t>
+          <t>27,22; 39,89</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>10,05; 21,86</t>
+          <t>20,37; 34,53</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>18,26; 29,49</t>
+          <t>22,1; 41,52</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>17,24; 26,53</t>
+          <t>13,86; 24,27</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>21,61; 30,07</t>
+          <t>26,51; 37,56</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>22,18; 33,78</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>14,57; 29,23</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>17,91; 26,77</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>28,49; 36,54</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>22,56; 31,55</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>20,0; 32,78</t>
         </is>
       </c>
     </row>
@@ -1600,37 +2431,67 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>32,43%</t>
+          <t>39,41%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>45,28%</t>
+          <t>42,69%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>50,08%</t>
+          <t>47,8%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>51,79%</t>
+          <t>37,17%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>41,05%</t>
+          <t>46,52%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>48,56%</t>
+          <t>37,57%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>44,28%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>53,91%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>43,06%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>40,05%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>46,04%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>45,19%</t>
         </is>
       </c>
     </row>
@@ -1643,32 +2504,62 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>25,75; 41,57</t>
+          <t>32,16; 46,5</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>38,82; 52,39</t>
+          <t>35,18; 50,16</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>42,1; 58,21</t>
+          <t>40,36; 58,72</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>45,04; 58,8</t>
+          <t>28,12; 47,13</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>35,69; 47,34</t>
+          <t>40,3; 52,93</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>43,63; 53,83</t>
+          <t>31,48; 42,87</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>37,79; 50,67</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>45,62; 63,31</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>38,09; 47,94</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>35,12; 44,68</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>40,34; 51,83</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>38,59; 52,03</t>
         </is>
       </c>
     </row>
@@ -1676,37 +2567,67 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>39,87%</t>
+          <t>35,35%</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>27,04%</t>
+          <t>24,52%</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>34,96%</t>
+          <t>25,39%</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>24,59%</t>
+          <t>31,59%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>37,47%</t>
+          <t>34,91%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>25,81%</t>
+          <t>30,49%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>28,23%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>25,04%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>35,12%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>27,6%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>26,81%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>28,45%</t>
         </is>
       </c>
     </row>
@@ -1719,74 +2640,130 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>31,72; 48,87</t>
+          <t>28,52; 42,89</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>21,47; 33,69</t>
+          <t>18,42; 30,33</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>26,82; 43,2</t>
+          <t>18,2; 32,23</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>18,66; 31,56</t>
+          <t>21,86; 44,34</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>31,77; 43,7</t>
+          <t>28,54; 41,6</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>21,38; 30,41</t>
+          <t>25,76; 36,56</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>22,28; 34,76</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>17,62; 33,48</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>30,47; 40,02</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>24,21; 32,07</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>22,57; 32,13</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>22,58; 36,39</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>37,11%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>18,81%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>20,39%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>21,72%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>27,45%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>20,46%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1799,70 +2776,134 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>25,28; 53,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>13,01; 26,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>13,03; 29,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>15,62; 28,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>20,92; 38,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>16,62; 25,95</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>29,95%</t>
+          <t>27,78%</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>47,41%</t>
+          <t>27,11%</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>49,25%</t>
+          <t>31,28%</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>50,81%</t>
+          <t>25,15%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>41,1%</t>
+          <t>15,06%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>49,34%</t>
+          <t>23,85%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>23,83%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>26,07%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>21,54%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>25,46%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>27,47%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>25,62%</t>
         </is>
       </c>
     </row>
@@ -1875,32 +2916,62 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>20,74; 39,73</t>
+          <t>21,2; 35,06</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>37,97; 56,94</t>
+          <t>21,28; 33,1</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>39,92; 60,84</t>
+          <t>23,46; 39,72</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>40,83; 58,81</t>
+          <t>16,68; 35,01</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>33,96; 48,52</t>
+          <t>10,6; 21,61</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>42,65; 55,66</t>
+          <t>18,71; 30,0</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>15,86; 34,81</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>17,38; 34,04</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>17,12; 26,19</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>21,24; 29,9</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>22,05; 34,36</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>19,88; 32,19</t>
         </is>
       </c>
     </row>
@@ -1908,37 +2979,67 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>32,94%</t>
+          <t>32,11%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>33,77%</t>
+          <t>45,17%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>30,36%</t>
+          <t>41,15%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>27,47%</t>
+          <t>49,7%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>31,45%</t>
+          <t>50,29%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>30,2%</t>
+          <t>51,76%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>41,21%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>41,04%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>41,03%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>48,5%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>41,18%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>45,22%</t>
         </is>
       </c>
     </row>
@@ -1951,74 +3052,130 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>22,52; 42,74</t>
+          <t>25,1; 40,14</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>25,57; 42,21</t>
+          <t>38,46; 51,64</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>22,49; 39,52</t>
+          <t>31,18; 50,63</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>20,33; 40,63</t>
+          <t>38,28; 60,26</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>24,26; 38,07</t>
+          <t>42,4; 58,35</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>24,48; 37,5</t>
+          <t>44,86; 58,53</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>32,15; 49,96</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>32,17; 51,62</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>35,18; 46,95</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>43,47; 53,76</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>34,99; 47,96</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>38,35; 51,94</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>26,25%</t>
+          <t>40,11%</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>27,64%</t>
+          <t>27,73%</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>19,63%</t>
+          <t>27,57%</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>27,11%</t>
+          <t>25,16%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>22,87%</t>
+          <t>34,64%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>27,37%</t>
+          <t>24,39%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>34,96%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>32,89%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>37,43%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>26,04%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>31,35%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>29,16%</t>
         </is>
       </c>
     </row>
@@ -2031,32 +3188,62 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>22,61; 30,46</t>
+          <t>31,8; 48,66</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>24,53; 31,25</t>
+          <t>22,1; 34,65</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>16,93; 22,6</t>
+          <t>20,24; 36,69</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>24,55; 29,71</t>
+          <t>17,19; 34,58</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>20,61; 25,42</t>
+          <t>27,68; 43,29</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>25,53; 29,83</t>
+          <t>18,96; 31,07</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>26,82; 43,68</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>24,55; 42,91</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>31,48; 43,27</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>21,32; 30,42</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>25,68; 38,25</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>23,22; 35,98</t>
         </is>
       </c>
     </row>
@@ -2064,37 +3251,67 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>40,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>48,51%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>47,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>46,02%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>43,91%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>47,24%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2107,70 +3324,134 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>36,62; 44,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>44,67; 52,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>43,53; 50,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>42,96; 48,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>41,45; 46,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>45,1; 49,51</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>33,16%</t>
+          <t>33,45%</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>23,85%</t>
+          <t>19,57%</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>33,3%</t>
+          <t>23,17%</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>26,87%</t>
+          <t>21,68%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>33,23%</t>
+          <t>21,28%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>25,4%</t>
+          <t>22,55%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>26,39%</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>18,93%</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="inlineStr">
+        <is>
+          <t>26,44%</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>21,25%</t>
+        </is>
+      </c>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>25,0%</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="inlineStr">
+        <is>
+          <t>20,07%</t>
         </is>
       </c>
     </row>
@@ -2183,48 +3464,1041 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>29,52; 37,37</t>
+          <t>22,6; 47,63</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>21,22; 26,79</t>
+          <t>13,5; 26,65</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>30,47; 36,71</t>
+          <t>13,82; 34,65</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>24,3; 29,93</t>
+          <t>12,76; 34,07</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>30,83; 35,66</t>
+          <t>14,33; 31,27</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>23,32; 27,3</t>
+          <t>16,59; 29,1</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>18,53; 36,32</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>10,92; 29,86</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr">
+        <is>
+          <t>19,87; 34,73</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>17,21; 26,1</t>
+        </is>
+      </c>
+      <c r="M45" s="2" t="inlineStr">
+        <is>
+          <t>18,82; 32,62</t>
+        </is>
+      </c>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>13,68; 28,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>31,78%</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>47,41%</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>47,04%</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>48,42%</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>48,36%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>51,17%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>43,83%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>40,93%</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>41,33%</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>49,54%</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>45,21%</t>
+        </is>
+      </c>
+      <c r="N46" s="2" t="inlineStr">
+        <is>
+          <t>44,05%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>22,7; 41,53</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>38,39; 55,99</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>34,64; 58,46</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>34,85; 62,61</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>39,76; 57,8</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>42,99; 58,62</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>33,39; 54,37</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>27,16; 54,4</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>34,58; 47,32</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>43,63; 55,89</t>
+        </is>
+      </c>
+      <c r="M47" s="2" t="inlineStr">
+        <is>
+          <t>37,33; 53,47</t>
+        </is>
+      </c>
+      <c r="N47" s="2" t="inlineStr">
+        <is>
+          <t>34,5; 54,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>34,77%</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>33,03%</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>29,79%</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>29,9%</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>30,36%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>26,28%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>29,78%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>40,14%</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>32,23%</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>29,21%</t>
+        </is>
+      </c>
+      <c r="M48" s="2" t="inlineStr">
+        <is>
+          <t>29,78%</t>
+        </is>
+      </c>
+      <c r="N48" s="2" t="inlineStr">
+        <is>
+          <t>35,88%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>25,58; 44,1</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>25,35; 41,44</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>20,24; 41,21</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>20,27; 42,69</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>22,65; 38,54</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>18,91; 36,24</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>20,44; 40,18</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>26,3; 56,19</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>26,54; 38,5</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>23,75; 35,6</t>
+        </is>
+      </c>
+      <c r="M49" s="2" t="inlineStr">
+        <is>
+          <t>22,65; 37,69</t>
+        </is>
+      </c>
+      <c r="N49" s="2" t="inlineStr">
+        <is>
+          <t>26,97; 46,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>24,88%</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>28,13%</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>26,39%</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>25,0%</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>19,6%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>27,33%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>28,44%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>25,79%</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>22,18%</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>27,72%</t>
+        </is>
+      </c>
+      <c r="M52" s="2" t="inlineStr">
+        <is>
+          <t>27,44%</t>
+        </is>
+      </c>
+      <c r="N52" s="2" t="inlineStr">
+        <is>
+          <t>25,4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>21,22; 28,66</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>25,02; 32,4</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>22,39; 30,64</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>20,74; 29,83</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>17,06; 22,67</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>24,71; 29,7</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>25,58; 31,91</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>22,25; 30,13</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>20,23; 24,37</t>
+        </is>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>25,53; 29,98</t>
+        </is>
+      </c>
+      <c r="M53" s="2" t="inlineStr">
+        <is>
+          <t>24,84; 30,08</t>
+        </is>
+      </c>
+      <c r="N53" s="2" t="inlineStr">
+        <is>
+          <t>22,57; 28,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>40,74%</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>48,27%</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>47,88%</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>47,24%</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>47,07%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>46,0%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>45,87%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>44,78%</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>43,98%</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>47,11%</t>
+        </is>
+      </c>
+      <c r="M54" s="2" t="inlineStr">
+        <is>
+          <t>46,85%</t>
+        </is>
+      </c>
+      <c r="N54" s="2" t="inlineStr">
+        <is>
+          <t>45,99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>36,95; 44,7</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>44,41; 52,25</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>43,17; 53,85</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>41,81; 53,61</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>43,92; 50,45</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>43,13; 48,84</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>42,16; 49,34</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>39,78; 48,68</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>41,06; 46,54</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>44,9; 49,83</t>
+        </is>
+      </c>
+      <c r="M55" s="2" t="inlineStr">
+        <is>
+          <t>43,88; 49,97</t>
+        </is>
+      </c>
+      <c r="N55" s="2" t="inlineStr">
+        <is>
+          <t>42,59; 49,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>34,37%</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>23,59%</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>25,73%</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>27,76%</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>33,34%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>26,67%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>25,68%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>29,43%</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>33,84%</t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>25,17%</t>
+        </is>
+      </c>
+      <c r="M56" s="2" t="inlineStr">
+        <is>
+          <t>25,7%</t>
+        </is>
+      </c>
+      <c r="N56" s="2" t="inlineStr">
+        <is>
+          <t>28,61%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>30,73; 38,94</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>20,85; 26,5</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>21,83; 29,44</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>23,44; 32,77</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>30,17; 36,43</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>24,03; 29,6</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>22,63; 28,95</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>25,34; 34,05</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>31,53; 36,68</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>23,33; 27,22</t>
+        </is>
+      </c>
+      <c r="M57" s="2" t="inlineStr">
+        <is>
+          <t>23,35; 28,37</t>
+        </is>
+      </c>
+      <c r="N57" s="2" t="inlineStr">
+        <is>
+          <t>25,54; 31,78</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P23_1-Edad-long_dif.xlsx
+++ b/data/long_dif/P23_1-Edad-long_dif.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -788,7 +788,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -920,7 +920,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1188,7 +1188,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1320,7 +1320,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1588,7 +1588,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1720,7 +1720,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1988,7 +1988,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -2120,7 +2120,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C40" s="5" t="n">
@@ -2388,7 +2388,7 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C43" s="5" t="n">
@@ -2520,7 +2520,7 @@
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C46" s="5" t="n">
@@ -2656,7 +2656,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C49" s="5" t="n">
@@ -2788,7 +2788,7 @@
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C52" s="5" t="n">
@@ -2920,7 +2920,7 @@
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C55" s="5" t="n">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C58" s="5" t="n">
@@ -3188,7 +3188,7 @@
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C61" s="5" t="n">
@@ -3320,7 +3320,7 @@
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C64" s="5" t="n">
